--- a/resources/excel files/PracticalMarkSheet1.xlsx
+++ b/resources/excel files/PracticalMarkSheet1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grace\Documents\NetBeansProjects\JavaProject\Excel Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grace\Documents\NetBeansProjects\JavaProject\resources\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFFD663-7F02-42FB-9273-D1C86F18E2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF7224-86F4-4956-827E-658E6E989B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="23">
   <si>
     <t>PID</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Sr No.</t>
   </si>
 </sst>
 </file>
@@ -148,19 +151,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -477,65 +480,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:K11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
         <v>182028</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
@@ -560,17 +567,20 @@
       <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
         <v>182023</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
@@ -595,17 +605,20 @@
       <c r="K3" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="L3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
         <v>182032</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
@@ -630,17 +643,20 @@
       <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
         <v>182022</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -665,17 +681,20 @@
       <c r="K5" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="L5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
         <v>182036</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
@@ -700,17 +719,20 @@
       <c r="K6" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="L6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
         <v>182004</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
@@ -735,17 +757,20 @@
       <c r="K7" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="L7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
         <v>182042</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
@@ -770,17 +795,20 @@
       <c r="K8" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="L8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
         <v>182043</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
@@ -805,17 +833,20 @@
       <c r="K9" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="L9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
         <v>182044</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
@@ -840,17 +871,20 @@
       <c r="K10" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="L10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
         <v>182055</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
@@ -873,6 +907,9 @@
         <v>21</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
